--- a/data/AF/AF_unemp.xlsx
+++ b/data/AF/AF_unemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nero\Documents\GitHub\sse_cern\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nero\Documents\GitHub\sse_cern\data\AF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAB9800-73DE-4FD1-8B1B-E4F9C1BB8D15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201E6B43-1045-4DE8-AFBA-9ED4E2428FF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34830" yWindow="3585" windowWidth="19200" windowHeight="8415"/>
+    <workbookView xWindow="42120" yWindow="1080" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstat_CH_SOKANDE_Tabell_1R_E337" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,10 +862,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1187,6 +1189,9 @@
       <c r="C23">
         <v>170628</v>
       </c>
+      <c r="D23">
+        <v>261882</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -1197,6 +1202,9 @@
       </c>
       <c r="C24">
         <v>174137</v>
+      </c>
+      <c r="D24">
+        <v>269899</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">

--- a/data/AF/AF_unemp.xlsx
+++ b/data/AF/AF_unemp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nero\Documents\GitHub\sse_cern\data\AF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201E6B43-1045-4DE8-AFBA-9ED4E2428FF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD7A751-2CA8-41F7-A0A9-9F44468B7291}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42120" yWindow="1080" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12320" yWindow="730" windowWidth="9520" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstat_CH_SOKANDE_Tabell_1R_E337" sheetId="1" r:id="rId1"/>
@@ -866,7 +866,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,6 +1217,9 @@
       <c r="C25">
         <v>176671</v>
       </c>
+      <c r="D25">
+        <v>277688</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -1227,6 +1230,9 @@
       </c>
       <c r="C26">
         <v>180794</v>
+      </c>
+      <c r="D26">
+        <v>284961</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">

--- a/data/AF/AF_unemp.xlsx
+++ b/data/AF/AF_unemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nero\Documents\GitHub\sse_cern\data\AF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD7A751-2CA8-41F7-A0A9-9F44468B7291}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA49C6D2-FE20-4ECD-B528-41831FCFD139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="730" windowWidth="9520" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="3120" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstat_CH_SOKANDE_Tabell_1R_E337" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1245,6 +1245,9 @@
       <c r="C27">
         <v>180272</v>
       </c>
+      <c r="D27">
+        <v>286369</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -1256,6 +1259,9 @@
       <c r="C28">
         <v>184854</v>
       </c>
+      <c r="D28">
+        <v>293800</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -1267,6 +1273,9 @@
       <c r="C29">
         <v>185806</v>
       </c>
+      <c r="D29">
+        <v>295730</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -1278,6 +1287,9 @@
       <c r="C30">
         <v>187019</v>
       </c>
+      <c r="D30">
+        <v>296058</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -1289,6 +1301,9 @@
       <c r="C31">
         <v>187637</v>
       </c>
+      <c r="D31">
+        <v>294605</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -1300,8 +1315,11 @@
       <c r="C32">
         <v>190889</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>294800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1311,8 +1329,11 @@
       <c r="C33">
         <v>191858</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>296334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1322,8 +1343,11 @@
       <c r="C34">
         <v>192265</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>294391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1334,7 +1358,7 @@
         <v>192480</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1345,7 +1369,7 @@
         <v>192333</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1356,7 +1380,7 @@
         <v>195598</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>194797</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1378,7 +1402,7 @@
         <v>193725</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1389,7 +1413,7 @@
         <v>192576</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1400,7 +1424,7 @@
         <v>196298</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1411,7 +1435,7 @@
         <v>195535</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1422,7 +1446,7 @@
         <v>194860</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1433,7 +1457,7 @@
         <v>193479</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1444,7 +1468,7 @@
         <v>197963</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1455,7 +1479,7 @@
         <v>197714</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1466,7 +1490,7 @@
         <v>197456</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>

--- a/data/AF/AF_unemp.xlsx
+++ b/data/AF/AF_unemp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nero\Documents\GitHub\sse_cern\data\AF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA49C6D2-FE20-4ECD-B528-41831FCFD139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959E05AF-2A2C-4F58-B34E-4AC85BD13A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="3120" windowWidth="21600" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vstat_CH_SOKANDE_Tabell_1R_E337" sheetId="1" r:id="rId1"/>
@@ -865,13 +865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
         <v>212507</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -913,7 +913,7 @@
         <v>211702</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
         <v>211503</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -941,7 +941,7 @@
         <v>210032</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -955,7 +955,7 @@
         <v>208768</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -969,7 +969,7 @@
         <v>210130</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -983,7 +983,7 @@
         <v>207841</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -997,7 +997,7 @@
         <v>205838</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>204259</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>205574</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>204039</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>206551</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>210960</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>226405</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>232611</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>236795</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>241294</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>247640</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>253108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>255844</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>258604</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>261882</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>269899</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>277688</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>284961</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>286369</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>293800</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>295730</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>296058</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>294605</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>294800</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>296334</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>294391</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1357,8 +1357,11 @@
       <c r="C35">
         <v>192480</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>293129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1368,8 +1371,11 @@
       <c r="C36">
         <v>192333</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>290310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1379,8 +1385,11 @@
       <c r="C37">
         <v>195598</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>290207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1390,8 +1399,11 @@
       <c r="C38">
         <v>194797</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>285579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1401,8 +1413,11 @@
       <c r="C39">
         <v>193725</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>281276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1412,8 +1427,11 @@
       <c r="C40">
         <v>192576</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>277545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1423,8 +1441,11 @@
       <c r="C41">
         <v>196298</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>277769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1434,8 +1455,11 @@
       <c r="C42">
         <v>195535</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>273021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1445,8 +1469,11 @@
       <c r="C43">
         <v>194860</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>267898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1456,8 +1483,11 @@
       <c r="C44">
         <v>193479</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>262329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1467,8 +1497,11 @@
       <c r="C45">
         <v>197963</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>258048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1479,7 +1512,7 @@
         <v>197714</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1490,7 +1523,7 @@
         <v>197456</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1501,7 +1534,7 @@
         <v>197188</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1512,7 +1545,7 @@
         <v>196416</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1523,7 +1556,7 @@
         <v>199428</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1534,7 +1567,7 @@
         <v>198705</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>199391</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
